--- a/data/input/employee_absence_data_47.xlsx
+++ b/data/input/employee_absence_data_47.xlsx
@@ -464,50 +464,50 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57564</v>
+        <v>61873</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lunna Novaes</t>
+          <t>Pietra Correia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45095</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>3496.6</v>
+        <v>8308.49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>95273</v>
+        <v>79581</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcelo Fogaça</t>
+          <t>Sr. Luiz Felipe da Conceição</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -517,45 +517,45 @@
         <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>11711.08</v>
+        <v>3749.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61370</v>
+        <v>4004</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Ana Laura Duarte</t>
+          <t>Mariana Duarte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>11655.82</v>
+        <v>3477.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26217</v>
+        <v>22174</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Leandro Moura</t>
+          <t>Sr. João Pedro da Conceição</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,26 +565,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45102</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>11178.14</v>
+        <v>9609.809999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>88255</v>
+        <v>32826</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yan Ramos</t>
+          <t>Davi Miguel Novais</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,155 +601,155 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>3440.37</v>
+        <v>4025.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22809</v>
+        <v>96440</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Isabel Casa Grande</t>
+          <t>Guilherme Cassiano</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>7748.89</v>
+        <v>5880.94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>83039</v>
+        <v>29404</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Albuquerque</t>
+          <t>João Pedro Camargo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45104</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>8036.93</v>
+        <v>4247.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99038</v>
+        <v>94305</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rhavi Campos</t>
+          <t>Lucas Melo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>5721.59</v>
+        <v>3628.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12634</v>
+        <v>28221</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hadassa Campos</t>
+          <t>Thomas Melo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45081</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>3028.41</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94045</v>
+        <v>30396</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liz Ribeiro</t>
+          <t>Maria Vitória Abreu</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45102</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>8986.950000000001</v>
+        <v>9695.41</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_47.xlsx
+++ b/data/input/employee_absence_data_47.xlsx
@@ -464,74 +464,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61873</v>
+        <v>71724</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pietra Correia</t>
+          <t>Ryan da Rosa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45078</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>8308.49</v>
+        <v>4737.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79581</v>
+        <v>37091</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Luiz Felipe da Conceição</t>
+          <t>Anthony Gabriel Fogaça</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="G3" t="n">
-        <v>3749.39</v>
+        <v>8031.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4004</v>
+        <v>35905</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mariana Duarte</t>
+          <t>Nathan Peixoto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,51 +540,51 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>3477.25</v>
+        <v>6753.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22174</v>
+        <v>11749</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. João Pedro da Conceição</t>
+          <t>Agatha Barros</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>9609.809999999999</v>
+        <v>7441.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32826</v>
+        <v>99086</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Davi Miguel Novais</t>
+          <t>Francisco Sá</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,31 +594,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45104</v>
+        <v>45079</v>
       </c>
       <c r="G6" t="n">
-        <v>4025.66</v>
+        <v>7109.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96440</v>
+        <v>85495</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Guilherme Cassiano</t>
+          <t>João Lucas Pereira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,80 +627,80 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="G7" t="n">
-        <v>5880.94</v>
+        <v>5621.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>29404</v>
+        <v>81154</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Pedro Camargo</t>
+          <t>Kevin Andrade</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45088</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>4247.58</v>
+        <v>5852.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>94305</v>
+        <v>98861</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lucas Melo</t>
+          <t>Ana Liz Porto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45103</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>3628.86</v>
+        <v>5895.49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28221</v>
+        <v>41730</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Thomas Melo</t>
+          <t>Luna Caldeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -710,26 +710,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45106</v>
+        <v>45080</v>
       </c>
       <c r="G10" t="n">
-        <v>3161</v>
+        <v>3870.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30396</v>
+        <v>56370</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Vitória Abreu</t>
+          <t>Joaquim Viana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45079</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>9695.41</v>
+        <v>5924.06</v>
       </c>
     </row>
   </sheetData>
